--- a/Documents/test.xlsx
+++ b/Documents/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="202">
   <si>
     <t>Status</t>
   </si>
@@ -136,6 +136,9 @@
     <t>207-012</t>
   </si>
   <si>
+    <t>207-013</t>
+  </si>
+  <si>
     <t>208-001</t>
   </si>
   <si>
@@ -190,6 +193,21 @@
     <t>208-018</t>
   </si>
   <si>
+    <t>208-019</t>
+  </si>
+  <si>
+    <t>208-020</t>
+  </si>
+  <si>
+    <t>208-021</t>
+  </si>
+  <si>
+    <t>208-022</t>
+  </si>
+  <si>
+    <t>208-023</t>
+  </si>
+  <si>
     <t>209-001</t>
   </si>
   <si>
@@ -319,6 +337,9 @@
     <t>08-08-2023</t>
   </si>
   <si>
+    <t>29-08-2023</t>
+  </si>
+  <si>
     <t>26-04-2023</t>
   </si>
   <si>
@@ -343,6 +364,18 @@
     <t>05-07-2023</t>
   </si>
   <si>
+    <t>31-07-2023</t>
+  </si>
+  <si>
+    <t>07-08-2023</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
+    <t>25-08-2023</t>
+  </si>
+  <si>
     <t>16-02-2023</t>
   </si>
   <si>
@@ -391,9 +424,6 @@
     <t>04-08-2023</t>
   </si>
   <si>
-    <t>09-08-2023</t>
-  </si>
-  <si>
     <t>21-03-2023</t>
   </si>
   <si>
@@ -421,6 +451,12 @@
     <t>07-07-2023</t>
   </si>
   <si>
+    <t>18-08-2023</t>
+  </si>
+  <si>
+    <t>05-09-2023</t>
+  </si>
+  <si>
     <t>08-03-2023</t>
   </si>
   <si>
@@ -436,15 +472,27 @@
     <t>28-06-2023</t>
   </si>
   <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
+    <t>21-08-2023</t>
+  </si>
+  <si>
+    <t>14-08-2023</t>
+  </si>
+  <si>
+    <t>23-08-2023</t>
+  </si>
+  <si>
+    <t>01-09-2023</t>
+  </si>
+  <si>
     <t>11-07-2023</t>
   </si>
   <si>
     <t>19-07-2023</t>
   </si>
   <si>
-    <t>29-08-2023</t>
-  </si>
-  <si>
     <t>04-05-2023</t>
   </si>
   <si>
@@ -475,6 +523,9 @@
     <t>14-07-2023</t>
   </si>
   <si>
+    <t>12-09-2023</t>
+  </si>
+  <si>
     <t>20-03-2023</t>
   </si>
   <si>
@@ -484,6 +535,9 @@
     <t>10-07-2023</t>
   </si>
   <si>
+    <t>30-08-2023</t>
+  </si>
+  <si>
     <t>09-03-2023</t>
   </si>
   <si>
@@ -551,6 +605,9 @@
   </si>
   <si>
     <t>15-07-2023</t>
+  </si>
+  <si>
+    <t>06-09-2023</t>
   </si>
   <si>
     <t>16-05-2023</t>
@@ -920,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1037,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1066,19 +1123,19 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -1101,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -1127,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1162,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -1194,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1217,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1240,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1263,40 +1320,40 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M11" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="N11" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R11" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="S11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="T11">
         <v>12</v>
@@ -1319,25 +1376,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L12" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M12" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -1360,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -1386,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="T14">
         <v>3</v>
@@ -1415,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="T15">
         <v>5</v>
@@ -1450,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="T16">
         <v>3</v>
@@ -1467,7 +1524,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>29</v>
@@ -1476,31 +1533,43 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" t="s">
         <v>134</v>
       </c>
-      <c r="L17" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" t="s">
-        <v>123</v>
-      </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="P17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17" t="s">
+        <v>119</v>
+      </c>
+      <c r="S17" t="s">
+        <v>156</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1508,7 +1577,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>24</v>
@@ -1517,28 +1586,40 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
         <v>134</v>
       </c>
-      <c r="J18" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" t="s">
-        <v>123</v>
-      </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>156</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1558,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1569,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1578,16 +1659,28 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" t="s">
+        <v>169</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1595,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1604,13 +1697,22 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" t="s">
+        <v>156</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1618,52 +1720,28 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" t="s">
-        <v>148</v>
-      </c>
-      <c r="O22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" t="s">
-        <v>138</v>
-      </c>
-      <c r="S22" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="T22">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1683,37 +1761,37 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" t="s">
+        <v>150</v>
+      </c>
+      <c r="S23" t="s">
         <v>114</v>
-      </c>
-      <c r="P23" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>102</v>
-      </c>
-      <c r="R23" t="s">
-        <v>103</v>
-      </c>
-      <c r="S23" t="s">
-        <v>104</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -1724,10 +1802,10 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1735,14 +1813,41 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>101</v>
-      </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>147</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>109</v>
+      </c>
+      <c r="R24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" t="s">
+        <v>111</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1750,10 +1855,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1762,10 +1867,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1773,10 +1881,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1785,28 +1893,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1814,34 +1904,40 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>97</v>
+        <v>171</v>
+      </c>
+      <c r="M27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" t="s">
+        <v>127</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1849,40 +1945,34 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K28" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" t="s">
-        <v>174</v>
-      </c>
-      <c r="N28" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1890,31 +1980,52 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>182</v>
+      </c>
+      <c r="L29" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29" t="s">
+        <v>115</v>
+      </c>
+      <c r="O29" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" t="s">
+        <v>154</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1922,34 +2033,31 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s">
         <v>103</v>
       </c>
-      <c r="I30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" t="s">
-        <v>97</v>
-      </c>
       <c r="T30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1957,31 +2065,31 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" t="s">
         <v>103</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" t="s">
-        <v>152</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -1992,34 +2100,37 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" t="s">
+        <v>168</v>
+      </c>
+      <c r="M32" t="s">
         <v>104</v>
       </c>
-      <c r="I32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" t="s">
-        <v>116</v>
-      </c>
       <c r="T32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2027,10 +2138,10 @@
         <v>51</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2039,16 +2150,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>171</v>
+      </c>
+      <c r="K33" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" t="s">
+        <v>127</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2056,40 +2173,28 @@
         <v>52</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" t="s">
-        <v>107</v>
-      </c>
-      <c r="L34" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="T34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2097,37 +2202,46 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>16</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>8</v>
-      </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="L35" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="N35" t="s">
+        <v>133</v>
+      </c>
+      <c r="O35" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" t="s">
+        <v>118</v>
       </c>
       <c r="T35">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2135,25 +2249,49 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>150</v>
+      </c>
+      <c r="J36" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" t="s">
+        <v>160</v>
+      </c>
+      <c r="P36" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>155</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2161,28 +2299,25 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
       </c>
       <c r="I37" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" t="s">
-        <v>155</v>
-      </c>
-      <c r="K37" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2190,7 +2325,7 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2199,13 +2334,37 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
+        <v>151</v>
+      </c>
+      <c r="J38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>183</v>
+      </c>
+      <c r="L38" t="s">
+        <v>161</v>
+      </c>
+      <c r="M38" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>197</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2213,28 +2372,22 @@
         <v>57</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2242,25 +2395,43 @@
         <v>58</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>112</v>
+        <v>133</v>
+      </c>
+      <c r="J40" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M40" t="s">
+        <v>155</v>
+      </c>
+      <c r="N40" t="s">
+        <v>173</v>
+      </c>
+      <c r="O40" t="s">
+        <v>197</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2268,34 +2439,25 @@
         <v>59</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I41" t="s">
-        <v>112</v>
-      </c>
-      <c r="J41" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41" t="s">
-        <v>156</v>
-      </c>
-      <c r="L41" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2303,34 +2465,28 @@
         <v>60</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" t="s">
-        <v>166</v>
-      </c>
-      <c r="L42" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2338,28 +2494,31 @@
         <v>61</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>155</v>
+      </c>
+      <c r="K43" t="s">
+        <v>173</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2367,55 +2526,28 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" t="s">
-        <v>128</v>
-      </c>
-      <c r="M44" t="s">
-        <v>157</v>
-      </c>
-      <c r="N44" t="s">
-        <v>166</v>
-      </c>
-      <c r="O44" t="s">
-        <v>115</v>
-      </c>
-      <c r="P44" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>159</v>
-      </c>
-      <c r="R44" t="s">
-        <v>179</v>
-      </c>
-      <c r="S44" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="T44">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2423,31 +2555,25 @@
         <v>63</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I45" t="s">
-        <v>111</v>
-      </c>
-      <c r="J45" t="s">
         <v>156</v>
       </c>
-      <c r="K45" t="s">
-        <v>88</v>
-      </c>
       <c r="T45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2455,10 +2581,10 @@
         <v>64</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2467,25 +2593,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I46" t="s">
-        <v>111</v>
-      </c>
-      <c r="J46" t="s">
-        <v>156</v>
-      </c>
-      <c r="K46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L46" t="s">
-        <v>90</v>
-      </c>
-      <c r="M46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="T46">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2493,46 +2607,34 @@
         <v>65</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="I47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s">
-        <v>118</v>
-      </c>
-      <c r="M47" t="s">
-        <v>95</v>
-      </c>
-      <c r="N47" t="s">
-        <v>159</v>
-      </c>
-      <c r="O47" t="s">
-        <v>179</v>
-      </c>
-      <c r="P47" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="T47">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2540,37 +2642,34 @@
         <v>66</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>22</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s">
-        <v>170</v>
-      </c>
-      <c r="M48" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="T48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2578,49 +2677,28 @@
         <v>67</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49" t="s">
+        <v>129</v>
+      </c>
+      <c r="T49">
         <v>3</v>
-      </c>
-      <c r="G49">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" t="s">
-        <v>92</v>
-      </c>
-      <c r="K49" t="s">
-        <v>137</v>
-      </c>
-      <c r="L49" t="s">
-        <v>171</v>
-      </c>
-      <c r="M49" t="s">
-        <v>164</v>
-      </c>
-      <c r="N49" t="s">
-        <v>169</v>
-      </c>
-      <c r="O49" t="s">
-        <v>174</v>
-      </c>
-      <c r="P49" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>155</v>
-      </c>
-      <c r="T49">
-        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2628,37 +2706,55 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K50" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="N50" t="s">
+        <v>184</v>
+      </c>
+      <c r="O50" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>177</v>
+      </c>
+      <c r="R50" t="s">
+        <v>198</v>
+      </c>
+      <c r="S50" t="s">
+        <v>102</v>
       </c>
       <c r="T50">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2666,28 +2762,28 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="K51" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="T51">
         <v>4</v>
@@ -2698,25 +2794,37 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>123</v>
       </c>
       <c r="I52" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J52" t="s">
-        <v>158</v>
+        <v>174</v>
+      </c>
+      <c r="K52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L52" t="s">
+        <v>96</v>
+      </c>
+      <c r="M52" t="s">
+        <v>138</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2724,25 +2832,46 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J53" t="s">
-        <v>124</v>
+        <v>175</v>
+      </c>
+      <c r="K53" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" t="s">
+        <v>129</v>
+      </c>
+      <c r="M53" t="s">
+        <v>101</v>
+      </c>
+      <c r="N53" t="s">
+        <v>177</v>
+      </c>
+      <c r="O53" t="s">
+        <v>198</v>
+      </c>
+      <c r="P53" t="s">
+        <v>102</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2750,22 +2879,37 @@
         <v>72</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="J54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" t="s">
+        <v>188</v>
+      </c>
+      <c r="M54" t="s">
+        <v>187</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2773,22 +2917,49 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="J55" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" t="s">
+        <v>189</v>
+      </c>
+      <c r="M55" t="s">
+        <v>182</v>
+      </c>
+      <c r="N55" t="s">
+        <v>187</v>
+      </c>
+      <c r="O55" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>172</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2796,22 +2967,37 @@
         <v>74</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>126</v>
       </c>
       <c r="I56" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="J56" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" t="s">
+        <v>165</v>
+      </c>
+      <c r="L56" t="s">
+        <v>185</v>
+      </c>
+      <c r="M56" t="s">
+        <v>188</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2819,28 +3005,31 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>162</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2848,22 +3037,22 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>176</v>
       </c>
       <c r="T58">
         <v>2</v>
@@ -2874,40 +3063,25 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>158</v>
+      </c>
+      <c r="J59" t="s">
+        <v>135</v>
+      </c>
+      <c r="T59">
         <v>2</v>
-      </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
-      <c r="H59" t="s">
-        <v>118</v>
-      </c>
-      <c r="I59" t="s">
-        <v>119</v>
-      </c>
-      <c r="J59" t="s">
-        <v>143</v>
-      </c>
-      <c r="K59" t="s">
-        <v>149</v>
-      </c>
-      <c r="L59" t="s">
-        <v>167</v>
-      </c>
-      <c r="M59" t="s">
-        <v>170</v>
-      </c>
-      <c r="N59" t="s">
-        <v>175</v>
-      </c>
-      <c r="T59">
-        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2915,37 +3089,22 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>9</v>
-      </c>
-      <c r="H60" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>143</v>
-      </c>
-      <c r="J60" t="s">
-        <v>149</v>
-      </c>
-      <c r="K60" t="s">
-        <v>167</v>
-      </c>
-      <c r="L60" t="s">
-        <v>170</v>
-      </c>
-      <c r="M60" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="T60">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2953,7 +3112,7 @@
         <v>79</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2962,16 +3121,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>9</v>
-      </c>
-      <c r="H61" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2979,25 +3135,22 @@
         <v>80</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -3005,22 +3158,28 @@
         <v>81</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>128</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
+        <v>129</v>
+      </c>
+      <c r="J63" t="s">
+        <v>130</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -3028,10 +3187,10 @@
         <v>82</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3040,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I64" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="T64">
         <v>2</v>
@@ -3054,25 +3213,40 @@
         <v>83</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I65" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="J65" t="s">
+        <v>159</v>
+      </c>
+      <c r="K65" t="s">
+        <v>165</v>
+      </c>
+      <c r="L65" t="s">
+        <v>185</v>
+      </c>
+      <c r="M65" t="s">
+        <v>188</v>
+      </c>
+      <c r="N65" t="s">
+        <v>193</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -3080,25 +3254,37 @@
         <v>84</v>
       </c>
       <c r="C66">
+        <v>28</v>
+      </c>
+      <c r="E66">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>9</v>
       </c>
-      <c r="E66">
+      <c r="H66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" t="s">
+        <v>159</v>
+      </c>
+      <c r="J66" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" t="s">
+        <v>185</v>
+      </c>
+      <c r="L66" t="s">
+        <v>188</v>
+      </c>
+      <c r="M66" t="s">
+        <v>193</v>
+      </c>
+      <c r="T66">
         <v>6</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66" t="s">
-        <v>124</v>
-      </c>
-      <c r="I66" t="s">
-        <v>146</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -3106,21 +3292,174 @@
         <v>85</v>
       </c>
       <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>160</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>104</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>133</v>
+      </c>
+      <c r="I70" t="s">
+        <v>161</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" t="s">
+        <v>162</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>135</v>
+      </c>
+      <c r="I72" t="s">
+        <v>162</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>4</v>
       </c>
-      <c r="H67" t="s">
-        <v>125</v>
-      </c>
-      <c r="T67">
+      <c r="H73" t="s">
+        <v>118</v>
+      </c>
+      <c r="T73">
         <v>1</v>
       </c>
     </row>
